--- a/Cols_draft_M5.xlsx
+++ b/Cols_draft_M5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganng/Documents/GitHub/QLSC600D2_2025_M5A1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B48DB5-F3BA-FC46-BF3C-9E3857853611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE0DF80-727D-0F45-BF8F-B37EF64B822B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{36676770-CB25-F949-8228-BA136C80F5EB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
   <si>
     <t>Link to article</t>
   </si>
@@ -208,7 +208,19 @@
     <t>Organizing principles of astrocytic nanoarchitecture in the mouse cerebral cortex</t>
   </si>
   <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/36805126/ </t>
+    <t>Cardiomyocyte orientation recovery at micrometer scale reveals long‐axis fiber continuum in heart walls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.cub.2023.01.043 </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.15252/embj.2022113288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was an easy read. Methodology and materials clearly described. Great "key resources" table.  However, a request must be made to the "lead contact" to access datasets generated. This may be inconvenient and/or time consuming. </t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -949,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037553EA-793E-E147-BDF6-0B4A3FE59E4A}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="94" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1290,15 +1302,8 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="6">
-        <v>2023</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>44</v>
-      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
       <c r="E12" s="18" t="s">
         <v>35</v>
       </c>
@@ -1316,7 +1321,6 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="18" t="s">
@@ -1356,29 +1360,57 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="B15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="6">
+        <v>2023</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>45</v>
+      </c>
       <c r="E15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
+      <c r="F15" s="6">
+        <v>4</v>
+      </c>
+      <c r="G15" s="6">
+        <v>5</v>
+      </c>
+      <c r="H15" s="6">
+        <v>5</v>
+      </c>
+      <c r="I15" s="6">
+        <v>5</v>
+      </c>
+      <c r="J15" s="6">
+        <v>5</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="16" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="6">
+        <v>2023</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>46</v>
+      </c>
       <c r="E16" s="6" t="s">
         <v>42</v>
       </c>
@@ -2094,9 +2126,10 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" xr:uid="{76023512-4294-824B-9C48-0092BD200719}"/>
-    <hyperlink ref="D12" r:id="rId2" xr:uid="{F5278718-A4B4-4240-985E-B0483DC8FE28}"/>
+    <hyperlink ref="D15" r:id="rId2" xr:uid="{F5278718-A4B4-4240-985E-B0483DC8FE28}"/>
     <hyperlink ref="D10" r:id="rId3" xr:uid="{D9D5E1C5-2E77-904A-AA9E-B48D428046B2}"/>
     <hyperlink ref="D11" r:id="rId4" xr:uid="{05674F12-7BCD-F047-B51E-2A47BBB4405F}"/>
+    <hyperlink ref="D16" r:id="rId5" xr:uid="{0B33E01C-4B02-5242-BC18-EC2B0587BFAC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Cols_draft_M5.xlsx
+++ b/Cols_draft_M5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganng/Documents/GitHub/QLSC600D2_2025_M5A1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE0DF80-727D-0F45-BF8F-B37EF64B822B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BEBB62-257E-5645-9734-8EACBDF00F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{36676770-CB25-F949-8228-BA136C80F5EB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>Link to article</t>
   </si>
@@ -208,19 +208,22 @@
     <t>Organizing principles of astrocytic nanoarchitecture in the mouse cerebral cortex</t>
   </si>
   <si>
-    <t>Cardiomyocyte orientation recovery at micrometer scale reveals long‐axis fiber continuum in heart walls</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://doi.org/10.1016/j.cub.2023.01.043 </t>
   </si>
   <si>
-    <t>https://doi.org/10.15252/embj.2022113288</t>
-  </si>
-  <si>
     <t xml:space="preserve">Was an easy read. Methodology and materials clearly described. Great "key resources" table.  However, a request must be made to the "lead contact" to access datasets generated. This may be inconvenient and/or time consuming. </t>
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/jnr.24386</t>
+  </si>
+  <si>
+    <t>Glycogen distribution in mouse hippocampus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qualitative study with minimal detail and inaccesible equipment. </t>
   </si>
 </sst>
 </file>
@@ -961,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037553EA-793E-E147-BDF6-0B4A3FE59E4A}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="94" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="94" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1367,7 +1370,7 @@
         <v>2023</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>42</v>
@@ -1388,13 +1391,13 @@
         <v>5</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -1403,25 +1406,41 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C16" s="6">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6">
+        <v>3</v>
+      </c>
+      <c r="H16" s="6">
+        <v>2</v>
+      </c>
+      <c r="I16" s="6">
+        <v>2</v>
+      </c>
+      <c r="J16" s="6">
+        <v>2</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="17" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
@@ -2129,7 +2148,6 @@
     <hyperlink ref="D15" r:id="rId2" xr:uid="{F5278718-A4B4-4240-985E-B0483DC8FE28}"/>
     <hyperlink ref="D10" r:id="rId3" xr:uid="{D9D5E1C5-2E77-904A-AA9E-B48D428046B2}"/>
     <hyperlink ref="D11" r:id="rId4" xr:uid="{05674F12-7BCD-F047-B51E-2A47BBB4405F}"/>
-    <hyperlink ref="D16" r:id="rId5" xr:uid="{0B33E01C-4B02-5242-BC18-EC2B0587BFAC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Cols_draft_M5.xlsx
+++ b/Cols_draft_M5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganng/Documents/GitHub/QLSC600D2_2025_M5A1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BEBB62-257E-5645-9734-8EACBDF00F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9F50C4-B3A0-4D42-B5FD-508D56FE9F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{36676770-CB25-F949-8228-BA136C80F5EB}"/>
   </bookViews>
@@ -964,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037553EA-793E-E147-BDF6-0B4A3FE59E4A}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="94" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="94" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1409,7 +1409,7 @@
         <v>48</v>
       </c>
       <c r="C16" s="6">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>47</v>

--- a/Cols_draft_M5.xlsx
+++ b/Cols_draft_M5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganng/Documents/GitHub/QLSC600D2_2025_M5A1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanhuang/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9F50C4-B3A0-4D42-B5FD-508D56FE9F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338ACD89-49F6-654C-B7FD-1AF655EA78ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{36676770-CB25-F949-8228-BA136C80F5EB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="1" xr2:uid="{36676770-CB25-F949-8228-BA136C80F5EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Deadlines" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
   <si>
     <t>Link to article</t>
   </si>
@@ -224,6 +224,30 @@
   </si>
   <si>
     <t xml:space="preserve">Qualitative study with minimal detail and inaccesible equipment. </t>
+  </si>
+  <si>
+    <t>Ryan Huang</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1073/pnas.2304884120</t>
+  </si>
+  <si>
+    <t>Coenzyme Q10 trapping in mitochondrial complex I underlies Leber’s hereditary optic neuropathy</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>This is a molecular dynamics simulation study that publishes all its data and codes in an online repository. However, the actual steps performed in the simulation were not described in detail in the paper.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/S0161-6420(03)00804-2</t>
+  </si>
+  <si>
+    <t>The morphology of an infarct in nonarteritic anterior ischemic optic neuropathy</t>
+  </si>
+  <si>
+    <t>This is a pathology examination study which is based on only one patient. It is difficult to replicate since it is very hard to obtain  such patient samples. However, the pathological examination protocol was well-described in the paper.</t>
   </si>
 </sst>
 </file>
@@ -466,7 +490,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -551,6 +575,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -964,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037553EA-793E-E147-BDF6-0B4A3FE59E4A}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="94" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="94" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -973,7 +1000,7 @@
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
     <col min="2" max="2" width="40.83203125" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
     <col min="6" max="6" width="16.5" customWidth="1"/>
     <col min="7" max="7" width="25.6640625" customWidth="1"/>
@@ -1462,7 +1489,7 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1482,41 +1509,89 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="6">
+        <v>2023</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="6">
+        <v>5</v>
+      </c>
+      <c r="G19" s="6">
+        <v>4</v>
+      </c>
+      <c r="H19" s="6">
+        <v>3</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19" s="6">
+        <v>5</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="6">
+        <v>5</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
+      <c r="B20" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="6">
+        <v>2003</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="6">
+        <v>3</v>
+      </c>
+      <c r="G20" s="6">
+        <v>3</v>
+      </c>
+      <c r="H20" s="6">
+        <v>5</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1</v>
+      </c>
+      <c r="J20" s="6">
+        <v>3</v>
+      </c>
+      <c r="K20" s="6">
+        <v>3</v>
+      </c>
+      <c r="L20" s="6">
+        <v>3</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="21" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
@@ -1526,7 +1601,9 @@
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+      <c r="E21" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -1544,7 +1621,9 @@
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -1562,7 +1641,9 @@
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -2148,6 +2229,8 @@
     <hyperlink ref="D15" r:id="rId2" xr:uid="{F5278718-A4B4-4240-985E-B0483DC8FE28}"/>
     <hyperlink ref="D10" r:id="rId3" xr:uid="{D9D5E1C5-2E77-904A-AA9E-B48D428046B2}"/>
     <hyperlink ref="D11" r:id="rId4" xr:uid="{05674F12-7BCD-F047-B51E-2A47BBB4405F}"/>
+    <hyperlink ref="D19" r:id="rId5" xr:uid="{800EF91D-8504-4040-BB43-40198693EDE2}"/>
+    <hyperlink ref="D20" r:id="rId6" xr:uid="{95D8DD52-6892-0B41-BC31-4928BFD9FBFD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
